--- a/Data/FloatingRateTermDepositsLCY.xlsx
+++ b/Data/FloatingRateTermDepositsLCY.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +348,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,12 +358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
